--- a/Disco.xlsx
+++ b/Disco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clau\Uni\PyA\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clau\Uni\PyA\proyecto\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346DC9B2-8F01-40ED-8CB5-45ED61949523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DFF26-8155-4724-816A-5005292DC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="11544" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="11544" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bandas" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="225">
   <si>
     <t>Stray Kids</t>
   </si>
@@ -690,6 +690,30 @@
   </si>
   <si>
     <t>SCENE STEALERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP.1: All To Zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP.2: Zero To One </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP.3: One To All </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP.FIN: All To Action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utopia (Japanese Ver.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP. EXTRA: Shift The Map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EPILOGUE: Action To Answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREASURE EP. Map To Answer </t>
   </si>
 </sst>
 </file>
@@ -742,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -763,8 +787,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1136,17 +1159,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F0642C-45C1-43E8-A67C-CBF55C655CBB}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1306,7 +1328,7 @@
         <v>25.31</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1927,6 +1949,142 @@
       </c>
       <c r="F39">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40">
+        <v>2018</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41">
+        <v>2019</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43">
+        <v>2019</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <v>2019</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45">
+        <v>2019</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CAC42C-8597-4F16-8A79-ECEF5E9500BD}">
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
@@ -5459,10 +5617,10 @@
       <c r="B207">
         <v>34</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="8">
         <v>182</v>
       </c>
       <c r="E207">
@@ -5476,10 +5634,10 @@
       <c r="B208">
         <v>34</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="8">
         <v>203</v>
       </c>
       <c r="E208">
@@ -5493,10 +5651,10 @@
       <c r="B209">
         <v>34</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="8">
         <v>264</v>
       </c>
       <c r="E209">
@@ -5510,10 +5668,10 @@
       <c r="B210">
         <v>34</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="8">
         <v>213</v>
       </c>
       <c r="E210">
@@ -5527,10 +5685,10 @@
       <c r="B211">
         <v>34</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="8">
         <v>160</v>
       </c>
       <c r="E211">
@@ -5544,10 +5702,10 @@
       <c r="B212">
         <v>34</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="8">
         <v>194</v>
       </c>
       <c r="E212">
@@ -5561,10 +5719,10 @@
       <c r="B213">
         <v>34</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="8">
         <v>248</v>
       </c>
       <c r="E213">
@@ -5578,10 +5736,10 @@
       <c r="B214">
         <v>35</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="8">
         <v>260</v>
       </c>
       <c r="E214">
@@ -5595,10 +5753,10 @@
       <c r="B215">
         <v>35</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="8">
         <v>217</v>
       </c>
       <c r="E215">
@@ -5612,10 +5770,10 @@
       <c r="B216">
         <v>35</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="8">
         <v>228</v>
       </c>
       <c r="E216">
@@ -5629,10 +5787,10 @@
       <c r="B217">
         <v>35</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="8">
         <v>225</v>
       </c>
       <c r="E217">
@@ -5646,10 +5804,10 @@
       <c r="B218">
         <v>35</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="8">
         <v>264</v>
       </c>
       <c r="E218">
@@ -5663,10 +5821,10 @@
       <c r="B219">
         <v>35</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="8">
         <v>224</v>
       </c>
       <c r="E219">
@@ -5680,10 +5838,10 @@
       <c r="B220">
         <v>35</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="8">
         <v>171</v>
       </c>
       <c r="E220">
@@ -5697,10 +5855,10 @@
       <c r="B221">
         <v>35</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="8">
         <v>155</v>
       </c>
       <c r="E221">
@@ -5714,10 +5872,10 @@
       <c r="B222">
         <v>35</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="8">
         <v>187</v>
       </c>
       <c r="E222">
@@ -5731,10 +5889,10 @@
       <c r="B223">
         <v>36</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="8">
         <v>223</v>
       </c>
       <c r="E223">
@@ -5748,10 +5906,10 @@
       <c r="B224">
         <v>36</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="8">
         <v>206</v>
       </c>
       <c r="E224">
@@ -5765,10 +5923,10 @@
       <c r="B225">
         <v>36</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C225" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="8">
         <v>192</v>
       </c>
       <c r="E225">
@@ -5782,10 +5940,10 @@
       <c r="B226">
         <v>36</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="8">
         <v>191</v>
       </c>
       <c r="E226">
@@ -5799,10 +5957,10 @@
       <c r="B227">
         <v>36</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C227" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="8">
         <v>235</v>
       </c>
       <c r="E227">
@@ -5816,10 +5974,10 @@
       <c r="B228">
         <v>36</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="C228" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="8">
         <v>223</v>
       </c>
       <c r="E228">
@@ -5833,10 +5991,10 @@
       <c r="B229">
         <v>36</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C229" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="8">
         <v>186</v>
       </c>
       <c r="E229">
@@ -5850,10 +6008,10 @@
       <c r="B230">
         <v>36</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="C230" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="8">
         <v>190</v>
       </c>
       <c r="E230">
@@ -5867,10 +6025,10 @@
       <c r="B231">
         <v>37</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="C231" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="8">
         <v>274</v>
       </c>
       <c r="E231">
@@ -5884,10 +6042,10 @@
       <c r="B232">
         <v>38</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="C232" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="8">
         <v>50</v>
       </c>
       <c r="E232">

--- a/Disco.xlsx
+++ b/Disco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clau\Uni\PyA\proyecto\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DFF26-8155-4724-816A-5005292DC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C013E9-3E5C-43B4-A47F-2DED53BEBCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="0" windowWidth="11544" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -793,6 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,12 +1163,13 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="D23" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1181,7 +1183,7 @@
       <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>187</v>
       </c>
       <c r="E1" t="s">
@@ -1201,7 +1203,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>2017</v>
       </c>
       <c r="E2" s="5">
@@ -1221,7 +1223,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>2018</v>
       </c>
       <c r="E3" s="5">
@@ -1241,7 +1243,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>2018</v>
       </c>
       <c r="E4" s="5">
@@ -1261,7 +1263,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>2018</v>
       </c>
       <c r="E5" s="5">
@@ -1281,7 +1283,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>2018</v>
       </c>
       <c r="E6" s="5">
@@ -1301,7 +1303,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>2019</v>
       </c>
       <c r="E7" s="5">
@@ -1321,7 +1323,7 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>2019</v>
       </c>
       <c r="E8" s="5">
@@ -1341,7 +1343,7 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>2019</v>
       </c>
       <c r="E9" s="5">
@@ -1361,7 +1363,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>2019</v>
       </c>
       <c r="E10" s="5">
@@ -1381,7 +1383,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>2019</v>
       </c>
       <c r="E11" s="5">
@@ -1401,7 +1403,7 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <v>2020</v>
       </c>
       <c r="E12" s="5">
@@ -1421,7 +1423,7 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>2020</v>
       </c>
       <c r="E13" s="5">
@@ -1441,7 +1443,7 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>2020</v>
       </c>
       <c r="E14" s="5">
@@ -1461,7 +1463,7 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>2020</v>
       </c>
       <c r="E15" s="5">
@@ -1481,7 +1483,7 @@
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <v>2020</v>
       </c>
       <c r="E16" s="5">
@@ -1501,7 +1503,7 @@
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>2020</v>
       </c>
       <c r="E17" s="5">
@@ -1521,7 +1523,7 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>2020</v>
       </c>
       <c r="E18" s="5">
@@ -1541,7 +1543,7 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>2020</v>
       </c>
       <c r="E19" s="5">
@@ -1561,7 +1563,7 @@
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>2020</v>
       </c>
       <c r="E20" s="5">
@@ -1581,7 +1583,7 @@
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>2020</v>
       </c>
       <c r="E21" s="5">
@@ -1601,7 +1603,7 @@
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>2020</v>
       </c>
       <c r="E22" s="5">
@@ -1621,7 +1623,7 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>2021</v>
       </c>
       <c r="E23" s="5">
@@ -1641,7 +1643,7 @@
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>2021</v>
       </c>
       <c r="E24" s="5">
@@ -1661,7 +1663,7 @@
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>2021</v>
       </c>
       <c r="E25" s="5">
@@ -1681,7 +1683,7 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>2021</v>
       </c>
       <c r="E26" s="5">
@@ -1701,7 +1703,7 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>2021</v>
       </c>
       <c r="E27" s="5">
@@ -1721,7 +1723,7 @@
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="10">
         <v>2021</v>
       </c>
       <c r="E28" s="5">
@@ -1741,7 +1743,7 @@
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="10">
         <v>2022</v>
       </c>
       <c r="E29" s="5">
@@ -1761,7 +1763,7 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="10">
         <v>2022</v>
       </c>
       <c r="E30" s="5">
@@ -1781,7 +1783,7 @@
       <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="10">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
@@ -1801,7 +1803,7 @@
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="10">
         <v>2022</v>
       </c>
       <c r="E32" s="5">
@@ -1821,7 +1823,7 @@
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="10">
         <v>2022</v>
       </c>
       <c r="E33" s="5">
@@ -1841,7 +1843,7 @@
       <c r="C34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="10">
         <v>2022</v>
       </c>
       <c r="E34" s="5">
@@ -1861,7 +1863,7 @@
       <c r="C35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="10">
         <v>2017</v>
       </c>
       <c r="E35" s="5">
@@ -1881,7 +1883,7 @@
       <c r="C36" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <v>2017</v>
       </c>
       <c r="E36" s="5">
@@ -1901,7 +1903,7 @@
       <c r="C37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <v>2017</v>
       </c>
       <c r="E37" s="5">
@@ -1921,7 +1923,7 @@
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="10">
         <v>2018</v>
       </c>
       <c r="E38" s="5">
@@ -1941,7 +1943,7 @@
       <c r="C39" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="10">
         <v>2020</v>
       </c>
       <c r="E39" s="5">
@@ -1961,7 +1963,7 @@
       <c r="C40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="10">
         <v>2018</v>
       </c>
       <c r="F40">
@@ -1978,7 +1980,7 @@
       <c r="C41" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="10">
         <v>2019</v>
       </c>
       <c r="F41">
@@ -1995,7 +1997,7 @@
       <c r="C42" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="10">
         <v>2019</v>
       </c>
       <c r="F42">
@@ -2012,7 +2014,7 @@
       <c r="C43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="10">
         <v>2019</v>
       </c>
       <c r="F43">
@@ -2029,7 +2031,7 @@
       <c r="C44" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="10">
         <v>2019</v>
       </c>
       <c r="F44">
@@ -2046,7 +2048,7 @@
       <c r="C45" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="10">
         <v>2019</v>
       </c>
       <c r="F45">
@@ -2063,7 +2065,7 @@
       <c r="C46" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="10">
         <v>2020</v>
       </c>
       <c r="F46">
@@ -2080,7 +2082,7 @@
       <c r="C47" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="10">
         <v>2020</v>
       </c>
       <c r="F47">
